--- a/data/trans_orig/CONS_TEN-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TEN-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial en País Vasco</t>
+          <t>Consumo de medicamentos para la tensión arterial en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial en Andalucia</t>
+          <t>Consumo de medicamentos para la tensión arterial en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial en C.Valenciana</t>
+          <t>Consumo de medicamentos para la tensión arterial en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_TEN-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TEN-Clase-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29277</t>
+          <t>30714</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25066</t>
+          <t>26759</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33534</t>
+          <t>35346</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11861</t>
+          <t>15180</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9259</t>
+          <t>11739</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14780</t>
+          <t>18348</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>41137</t>
+          <t>45894</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>35828</t>
+          <t>40272</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>46720</t>
+          <t>51994</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>15,69%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>116533</t>
+          <t>132087</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>112276</t>
+          <t>127455</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>120744</t>
+          <t>136042</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>79,92%</t>
+          <t>81,13%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>77,0%</t>
+          <t>78,29%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,81%</t>
+          <t>83,56%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>131030</t>
+          <t>153387</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>128111</t>
+          <t>150219</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>133632</t>
+          <t>156828</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>91,7%</t>
+          <t>90,99%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,66%</t>
+          <t>89,12%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>247564</t>
+          <t>285474</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>241981</t>
+          <t>279374</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>252873</t>
+          <t>291096</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>85,75%</t>
+          <t>86,15%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>83,82%</t>
+          <t>84,31%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>87,59%</t>
+          <t>87,85%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17422</t>
+          <t>19129</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14395</t>
+          <t>15814</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21207</t>
+          <t>22970</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13328</t>
+          <t>14338</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10631</t>
+          <t>11773</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16419</t>
+          <t>17866</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>30750</t>
+          <t>33466</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>26819</t>
+          <t>28636</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>35333</t>
+          <t>38331</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>17,99%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>63750</t>
+          <t>71296</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>59965</t>
+          <t>67455</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>66777</t>
+          <t>74611</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>78,54%</t>
+          <t>78,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>73,87%</t>
+          <t>74,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>82,27%</t>
+          <t>82,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>95789</t>
+          <t>108330</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>92698</t>
+          <t>104802</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>98486</t>
+          <t>110895</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>87,79%</t>
+          <t>88,31%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>84,95%</t>
+          <t>85,44%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>90,26%</t>
+          <t>90,4%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>159539</t>
+          <t>179627</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>154956</t>
+          <t>174762</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>163470</t>
+          <t>184457</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>83,84%</t>
+          <t>84,29%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>81,43%</t>
+          <t>82,01%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>85,91%</t>
+          <t>86,56%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>42234</t>
+          <t>35919</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>37301</t>
+          <t>30917</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>47308</t>
+          <t>40145</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>20,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13543</t>
+          <t>14040</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10894</t>
+          <t>11404</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16439</t>
+          <t>17220</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>26,03%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>55777</t>
+          <t>49959</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>50213</t>
+          <t>45089</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>61686</t>
+          <t>55360</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>25,69%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>121622</t>
+          <t>117965</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>116548</t>
+          <t>113739</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>126555</t>
+          <t>122967</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>74,22%</t>
+          <t>76,66%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,13%</t>
+          <t>73,91%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>77,24%</t>
+          <t>79,91%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49602</t>
+          <t>47577</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>46706</t>
+          <t>44397</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52251</t>
+          <t>50213</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>78,55%</t>
+          <t>77,21%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>73,97%</t>
+          <t>72,05%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>82,75%</t>
+          <t>81,49%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>171224</t>
+          <t>165542</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>165315</t>
+          <t>160141</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>176788</t>
+          <t>170412</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>75,43%</t>
+          <t>76,82%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>72,83%</t>
+          <t>74,31%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>77,88%</t>
+          <t>79,08%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37437</t>
+          <t>34148</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32699</t>
+          <t>29736</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>42597</t>
+          <t>39111</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32287</t>
+          <t>32247</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28100</t>
+          <t>27846</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37306</t>
+          <t>36803</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>69724</t>
+          <t>66395</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>63808</t>
+          <t>59861</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>77209</t>
+          <t>72515</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>20,61%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>132652</t>
+          <t>135571</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>127492</t>
+          <t>130608</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>137390</t>
+          <t>139983</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>77,99%</t>
+          <t>79,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>74,96%</t>
+          <t>76,96%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>80,78%</t>
+          <t>82,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>144896</t>
+          <t>149943</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>139877</t>
+          <t>145387</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>149083</t>
+          <t>154344</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>81,78%</t>
+          <t>82,3%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>78,94%</t>
+          <t>79,8%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>84,14%</t>
+          <t>84,72%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>277547</t>
+          <t>285514</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>270062</t>
+          <t>279394</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>283463</t>
+          <t>292048</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>79,92%</t>
+          <t>81,13%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>77,77%</t>
+          <t>79,39%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>81,63%</t>
+          <t>82,99%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16664</t>
+          <t>14693</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13547</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19894</t>
+          <t>17710</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>30462</t>
+          <t>28148</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>26182</t>
+          <t>24340</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>34663</t>
+          <t>32316</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>47126</t>
+          <t>42841</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>41708</t>
+          <t>37761</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>52425</t>
+          <t>48028</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>24,03%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>60187</t>
+          <t>59758</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>56957</t>
+          <t>56741</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>63304</t>
+          <t>62370</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>78,32%</t>
+          <t>80,26%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>74,11%</t>
+          <t>76,21%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>82,37%</t>
+          <t>83,77%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>102470</t>
+          <t>97268</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>98269</t>
+          <t>93100</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>106750</t>
+          <t>101076</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>77,08%</t>
+          <t>77,56%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>73,92%</t>
+          <t>74,23%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>80,3%</t>
+          <t>80,59%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>162657</t>
+          <t>157026</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>157358</t>
+          <t>151839</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>168075</t>
+          <t>162106</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>77,54%</t>
+          <t>78,57%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>75,01%</t>
+          <t>75,97%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>80,12%</t>
+          <t>81,11%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2377</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1047</t>
+          <t>739</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4297</t>
+          <t>2931</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>32717</t>
+          <t>28973</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>28260</t>
+          <t>25187</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>36728</t>
+          <t>33487</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>35094</t>
+          <t>30583</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>30736</t>
+          <t>26527</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>39906</t>
+          <t>34924</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>19,6%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>42884</t>
+          <t>53992</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>40964</t>
+          <t>52672</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>44214</t>
+          <t>54864</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>97,1%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>90,51%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,69%</t>
+          <t>98,67%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>85560</t>
+          <t>93628</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>81549</t>
+          <t>89114</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>90017</t>
+          <t>97414</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>72,34%</t>
+          <t>76,37%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>68,95%</t>
+          <t>72,69%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>76,11%</t>
+          <t>79,46%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>128444</t>
+          <t>147621</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>123632</t>
+          <t>143280</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>132802</t>
+          <t>151677</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>78,54%</t>
+          <t>82,84%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>75,6%</t>
+          <t>80,4%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>81,21%</t>
+          <t>85,11%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>145411</t>
+          <t>136214</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>135608</t>
+          <t>127114</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>154721</t>
+          <t>145485</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>134197</t>
+          <t>132925</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>125201</t>
+          <t>123917</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>143383</t>
+          <t>142382</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>279608</t>
+          <t>269139</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>266268</t>
+          <t>257593</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>293343</t>
+          <t>282567</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>18,96%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>537628</t>
+          <t>570669</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>528318</t>
+          <t>561398</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>547431</t>
+          <t>579769</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>78,71%</t>
+          <t>80,73%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>77,35%</t>
+          <t>79,42%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>80,15%</t>
+          <t>82,02%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>609347</t>
+          <t>650134</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>600161</t>
+          <t>640677</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>618343</t>
+          <t>659142</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>81,95%</t>
+          <t>83,02%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>80,72%</t>
+          <t>81,82%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>83,16%</t>
+          <t>84,18%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1146975</t>
+          <t>1220802</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1133240</t>
+          <t>1207374</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1160315</t>
+          <t>1232348</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>80,4%</t>
+          <t>81,94%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>79,44%</t>
+          <t>81,04%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>81,34%</t>
+          <t>82,71%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3383,12 +3383,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>60647</t>
+          <t>60688</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>90588</t>
+          <t>88802</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3418,12 +3418,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>29511</t>
+          <t>29159</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>48337</t>
+          <t>48167</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>95974</t>
+          <t>96025</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>131498</t>
+          <t>129764</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>19,5%</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>276095</t>
+          <t>277881</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>306036</t>
+          <t>305995</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3511,12 +3511,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,3%</t>
+          <t>75,78%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>83,46%</t>
+          <t>83,45%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>250564</t>
+          <t>250734</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>269390</t>
+          <t>269742</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>83,83%</t>
+          <t>83,89%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>90,13%</t>
+          <t>90,24%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3566,12 +3566,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>534086</t>
+          <t>535820</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>569610</t>
+          <t>569559</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3581,12 +3581,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>80,24%</t>
+          <t>80,5%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>85,58%</t>
+          <t>85,57%</t>
         </is>
       </c>
     </row>
@@ -3726,12 +3726,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48861</t>
+          <t>47870</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75996</t>
+          <t>75668</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3761,12 +3761,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29070</t>
+          <t>29148</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>46929</t>
+          <t>46874</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>84870</t>
+          <t>85619</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>114814</t>
+          <t>117471</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>20,14%</t>
         </is>
       </c>
     </row>
@@ -3839,12 +3839,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>247168</t>
+          <t>247496</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>274303</t>
+          <t>275294</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>76,48%</t>
+          <t>76,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>84,88%</t>
+          <t>85,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3874,12 +3874,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>213152</t>
+          <t>213207</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>231011</t>
+          <t>230933</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>81,96%</t>
+          <t>81,98%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>88,82%</t>
+          <t>88,79%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3909,12 +3909,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>468430</t>
+          <t>465773</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>498374</t>
+          <t>497625</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3924,12 +3924,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>80,31%</t>
+          <t>79,86%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>85,45%</t>
+          <t>85,32%</t>
         </is>
       </c>
     </row>
@@ -4069,12 +4069,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15247</t>
+          <t>14547</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>119215</t>
+          <t>118020</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18487</t>
+          <t>18001</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>31029</t>
+          <t>31779</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4119,12 +4119,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>31,8%</t>
+          <t>32,57%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4139,12 +4139,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>23127</t>
+          <t>24040</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>146491</t>
+          <t>143419</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4154,12 +4154,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>25,03%</t>
         </is>
       </c>
     </row>
@@ -4182,12 +4182,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>356209</t>
+          <t>357404</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>460177</t>
+          <t>460877</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4197,12 +4197,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,92%</t>
+          <t>75,18%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4217,12 +4217,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>66535</t>
+          <t>65785</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>79077</t>
+          <t>79563</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4232,12 +4232,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>68,2%</t>
+          <t>67,43%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>81,05%</t>
+          <t>81,55%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4252,12 +4252,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>426497</t>
+          <t>429569</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>549861</t>
+          <t>548948</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4267,12 +4267,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>74,43%</t>
+          <t>74,97%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>95,8%</t>
         </is>
       </c>
     </row>
@@ -4412,12 +4412,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89538</t>
+          <t>90119</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>124517</t>
+          <t>124385</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4427,12 +4427,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>87255</t>
+          <t>88690</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>486558</t>
+          <t>496492</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4462,12 +4462,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>76,43%</t>
+          <t>77,99%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>196712</t>
+          <t>195239</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>709822</t>
+          <t>698721</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>60,52%</t>
+          <t>59,58%</t>
         </is>
       </c>
     </row>
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>411638</t>
+          <t>411770</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>446617</t>
+          <t>446036</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4540,12 +4540,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>76,78%</t>
+          <t>76,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>83,3%</t>
+          <t>83,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>150080</t>
+          <t>140146</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>549383</t>
+          <t>547948</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4575,12 +4575,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>86,29%</t>
+          <t>86,07%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4595,12 +4595,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>462971</t>
+          <t>474072</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>976081</t>
+          <t>977554</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4610,12 +4610,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>39,48%</t>
+          <t>40,42%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>83,23%</t>
+          <t>83,35%</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>29235</t>
+          <t>29368</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>51277</t>
+          <t>51355</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4790,12 +4790,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>56897</t>
+          <t>52934</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>118150</t>
+          <t>116581</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4805,12 +4805,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4825,12 +4825,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>94663</t>
+          <t>91299</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>161919</t>
+          <t>159375</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>25,09%</t>
         </is>
       </c>
     </row>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>159945</t>
+          <t>159867</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>181987</t>
+          <t>181854</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4883,12 +4883,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>75,72%</t>
+          <t>75,69%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>86,16%</t>
+          <t>86,1%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>305799</t>
+          <t>307368</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>367052</t>
+          <t>371015</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4918,12 +4918,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>72,13%</t>
+          <t>72,5%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>86,58%</t>
+          <t>87,51%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4938,12 +4938,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>473252</t>
+          <t>475796</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>540508</t>
+          <t>543872</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4953,12 +4953,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>74,51%</t>
+          <t>74,91%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>85,1%</t>
+          <t>85,63%</t>
         </is>
       </c>
     </row>
@@ -5098,12 +5098,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>926</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8864</t>
+          <t>9658</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5113,12 +5113,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5133,12 +5133,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>114702</t>
+          <t>114013</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>147352</t>
+          <t>147740</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>23,27%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>30,07%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>115374</t>
+          <t>115413</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>154120</t>
+          <t>152204</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>23,18%</t>
         </is>
       </c>
     </row>
@@ -5211,12 +5211,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>157897</t>
+          <t>157103</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>165838</t>
+          <t>165835</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5226,12 +5226,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>94,21%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>99,44%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5246,12 +5246,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>342616</t>
+          <t>342228</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>375266</t>
+          <t>375955</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>69,93%</t>
+          <t>69,85%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>76,59%</t>
+          <t>76,73%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>502609</t>
+          <t>504525</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>541355</t>
+          <t>541316</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>76,53%</t>
+          <t>76,82%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
@@ -5441,12 +5441,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>234311</t>
+          <t>216417</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>397473</t>
+          <t>396900</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5456,12 +5456,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5476,12 +5476,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>405920</t>
+          <t>410858</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>1053800</t>
+          <t>1052724</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5491,12 +5491,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>47,75%</t>
+          <t>47,7%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>720215</t>
+          <t>721526</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1452387</t>
+          <t>1481767</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5526,12 +5526,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>34,57%</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5554,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1681936</t>
+          <t>1682509</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1845098</t>
+          <t>1862992</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5569,12 +5569,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>80,89%</t>
+          <t>80,91%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>88,73%</t>
+          <t>89,59%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1153301</t>
+          <t>1154377</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1801181</t>
+          <t>1796243</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5604,12 +5604,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>52,25%</t>
+          <t>52,3%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>81,61%</t>
+          <t>81,38%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2834123</t>
+          <t>2804743</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>3566295</t>
+          <t>3564984</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5639,12 +5639,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>66,12%</t>
+          <t>65,43%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>83,2%</t>
+          <t>83,17%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_TEN-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TEN-Clase-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para la tensión arterial en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30714</t>
+          <t>79341</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26759</t>
+          <t>64573</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35346</t>
+          <t>94525</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15180</t>
+          <t>44664</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11739</t>
+          <t>34432</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18348</t>
+          <t>55715</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>169</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>45894</t>
+          <t>124006</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>40272</t>
+          <t>106136</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>51994</t>
+          <t>142101</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>19,65%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>132087</t>
+          <t>316046</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>127455</t>
+          <t>300862</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>136042</t>
+          <t>330814</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>81,13%</t>
+          <t>79,93%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,29%</t>
+          <t>76,09%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>83,56%</t>
+          <t>83,67%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>385</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>153387</t>
+          <t>282962</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>150219</t>
+          <t>271911</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>156828</t>
+          <t>293194</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>86,37%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,12%</t>
+          <t>82,99%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>89,49%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1483</t>
+          <t>685</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>285474</t>
+          <t>599007</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>279374</t>
+          <t>580912</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>291096</t>
+          <t>616877</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>86,15%</t>
+          <t>82,85%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>84,31%</t>
+          <t>80,35%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>87,85%</t>
+          <t>85,32%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19129</t>
+          <t>65437</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15814</t>
+          <t>50154</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22970</t>
+          <t>79524</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14338</t>
+          <t>41890</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11773</t>
+          <t>32396</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17866</t>
+          <t>51884</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>150</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>33466</t>
+          <t>107327</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>28636</t>
+          <t>91979</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>38331</t>
+          <t>125670</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>19,94%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>71296</t>
+          <t>277988</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67455</t>
+          <t>263901</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74611</t>
+          <t>293271</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>78,85%</t>
+          <t>80,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>74,6%</t>
+          <t>76,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>82,51%</t>
+          <t>85,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>325</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>108330</t>
+          <t>245050</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>104802</t>
+          <t>235056</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>110895</t>
+          <t>254544</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>88,31%</t>
+          <t>85,4%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>85,44%</t>
+          <t>81,92%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>90,4%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>576</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>179627</t>
+          <t>523038</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>174762</t>
+          <t>504695</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>184457</t>
+          <t>538386</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>84,29%</t>
+          <t>82,97%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>82,01%</t>
+          <t>80,06%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>86,56%</t>
+          <t>85,41%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>333</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>343425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>343425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>343425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>726</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>630365</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>630365</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>630365</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>35919</t>
+          <t>57354</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30917</t>
+          <t>45862</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40145</t>
+          <t>72426</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14040</t>
+          <t>27680</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11404</t>
+          <t>20614</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17220</t>
+          <t>35885</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>32,19%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>118</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>49959</t>
+          <t>85034</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>45089</t>
+          <t>70722</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>55360</t>
+          <t>99289</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>25,69%</t>
+          <t>26,69%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>117965</t>
+          <t>203202</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>113739</t>
+          <t>188130</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>122967</t>
+          <t>214694</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>76,66%</t>
+          <t>77,99%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,91%</t>
+          <t>72,2%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,91%</t>
+          <t>82,4%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47577</t>
+          <t>83806</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44397</t>
+          <t>75601</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50213</t>
+          <t>90872</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>77,21%</t>
+          <t>75,17%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>72,05%</t>
+          <t>67,81%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>81,49%</t>
+          <t>81,51%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>306</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>165542</t>
+          <t>287009</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>160141</t>
+          <t>272754</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>170412</t>
+          <t>301321</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>76,82%</t>
+          <t>77,14%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>74,31%</t>
+          <t>73,31%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>79,08%</t>
+          <t>80,99%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34148</t>
+          <t>113662</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29736</t>
+          <t>97472</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39111</t>
+          <t>134460</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>120</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32247</t>
+          <t>70151</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27846</t>
+          <t>58559</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36803</t>
+          <t>83053</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>261</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>66395</t>
+          <t>183814</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>59861</t>
+          <t>163048</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>72515</t>
+          <t>205303</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>18,66%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>422</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>135571</t>
+          <t>496320</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>130608</t>
+          <t>475522</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>139983</t>
+          <t>512510</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>79,88%</t>
+          <t>81,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>76,96%</t>
+          <t>77,96%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>82,48%</t>
+          <t>84,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>550</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>149943</t>
+          <t>420002</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>145387</t>
+          <t>407100</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>154344</t>
+          <t>431594</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>82,3%</t>
+          <t>85,69%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>79,8%</t>
+          <t>83,06%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>84,72%</t>
+          <t>88,05%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>972</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>285514</t>
+          <t>916321</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>279394</t>
+          <t>894832</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>292048</t>
+          <t>937087</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>81,13%</t>
+          <t>83,29%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>79,39%</t>
+          <t>81,34%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>85,18%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>670</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14693</t>
+          <t>45388</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12081</t>
+          <t>34879</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17710</t>
+          <t>58736</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>170</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>28148</t>
+          <t>101774</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>24340</t>
+          <t>88386</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>32316</t>
+          <t>115426</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>223</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>42841</t>
+          <t>147162</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>37761</t>
+          <t>129323</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>48028</t>
+          <t>166657</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>24,03%</t>
+          <t>25,2%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>59758</t>
+          <t>207953</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>56741</t>
+          <t>194605</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>62370</t>
+          <t>218462</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>80,26%</t>
+          <t>82,08%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>76,21%</t>
+          <t>76,82%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>83,77%</t>
+          <t>86,23%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>415</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>97268</t>
+          <t>306245</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>93100</t>
+          <t>292593</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>101076</t>
+          <t>319633</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>77,56%</t>
+          <t>75,06%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>74,23%</t>
+          <t>71,71%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>80,59%</t>
+          <t>78,34%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>925</t>
+          <t>594</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>157026</t>
+          <t>514199</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>151839</t>
+          <t>494704</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>162106</t>
+          <t>532038</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>78,57%</t>
+          <t>77,75%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>75,97%</t>
+          <t>74,8%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>81,11%</t>
+          <t>80,45%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>817</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>3347</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>903</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2931</t>
+          <t>9332</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>241</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28973</t>
+          <t>141898</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>25187</t>
+          <t>125275</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>33487</t>
+          <t>161731</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>25,95%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>29,57%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>245</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>30583</t>
+          <t>145245</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>26527</t>
+          <t>126813</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>34924</t>
+          <t>164531</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>22,97%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>53992</t>
+          <t>166150</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>52672</t>
+          <t>160165</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>54864</t>
+          <t>168594</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>97,1%</t>
+          <t>98,03%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>94,49%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>99,47%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>93628</t>
+          <t>404976</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>89114</t>
+          <t>385143</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>97414</t>
+          <t>421599</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>76,37%</t>
+          <t>74,05%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>72,69%</t>
+          <t>70,43%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>79,46%</t>
+          <t>77,09%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>531</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>147621</t>
+          <t>571126</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>143280</t>
+          <t>551840</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>151677</t>
+          <t>589558</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>82,84%</t>
+          <t>79,72%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>80,4%</t>
+          <t>77,03%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>85,11%</t>
+          <t>82,3%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>776</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>136214</t>
+          <t>364530</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>127114</t>
+          <t>333672</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>145485</t>
+          <t>398199</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>715</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>132925</t>
+          <t>428058</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>123917</t>
+          <t>400592</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>142382</t>
+          <t>460255</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>1166</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>269139</t>
+          <t>792589</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>257593</t>
+          <t>750262</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>282567</t>
+          <t>838962</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>19,96%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3162</t>
+          <t>1415</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>570669</t>
+          <t>1667658</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>561398</t>
+          <t>1633989</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>579769</t>
+          <t>1698516</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>80,73%</t>
+          <t>82,06%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>79,42%</t>
+          <t>80,41%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>82,02%</t>
+          <t>83,58%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3597</t>
+          <t>2249</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>650134</t>
+          <t>1743041</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>640677</t>
+          <t>1710844</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>659142</t>
+          <t>1770507</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>83,02%</t>
+          <t>80,28%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>81,82%</t>
+          <t>78,8%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>84,18%</t>
+          <t>81,55%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>6759</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1220802</t>
+          <t>3410698</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1207374</t>
+          <t>3364325</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1232348</t>
+          <t>3453025</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>81,94%</t>
+          <t>81,14%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>81,04%</t>
+          <t>80,04%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>82,71%</t>
+          <t>82,15%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032188</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032188</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032188</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8389</t>
+          <t>4830</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203287</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203287</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203287</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial en Andalucia (tasa de respuesta: 99,88%)</t>
+          <t>Consumo de medicamentos para la tensión arterial en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3373,107 +3373,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>74837</t>
+          <t>31989</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>60688</t>
+          <t>24301</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>88802</t>
+          <t>40438</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>37786</t>
+          <t>16315</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>29159</t>
+          <t>11712</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>48167</t>
+          <t>23488</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>105</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>112623</t>
+          <t>48305</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>96025</t>
+          <t>39099</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>129764</t>
+          <t>59205</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>10,35%</t>
         </is>
       </c>
     </row>
@@ -3486,107 +3486,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>446</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>291846</t>
+          <t>263534</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>277881</t>
+          <t>255085</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>305995</t>
+          <t>271222</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>89,18%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,78%</t>
+          <t>86,32%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>83,45%</t>
+          <t>91,78%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>435</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>261115</t>
+          <t>260385</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>250734</t>
+          <t>253212</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>269742</t>
+          <t>264988</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>87,36%</t>
+          <t>94,1%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>83,89%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>90,24%</t>
+          <t>95,77%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>881</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>552961</t>
+          <t>523917</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>535820</t>
+          <t>513017</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>569559</t>
+          <t>533123</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>83,08%</t>
+          <t>91,56%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>80,5%</t>
+          <t>89,65%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>85,57%</t>
+          <t>93,17%</t>
         </is>
       </c>
     </row>
@@ -3599,22 +3599,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3634,22 +3634,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3669,22 +3669,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3716,107 +3716,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62283</t>
+          <t>25719</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>47870</t>
+          <t>20133</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75668</t>
+          <t>33811</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37524</t>
+          <t>14702</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29148</t>
+          <t>10085</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>46874</t>
+          <t>21213</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>94</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>99807</t>
+          <t>40421</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>85619</t>
+          <t>32660</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>117471</t>
+          <t>50201</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>11,74%</t>
         </is>
       </c>
     </row>
@@ -3829,107 +3829,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>286</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>260881</t>
+          <t>170053</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>247496</t>
+          <t>161961</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>275294</t>
+          <t>175639</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>80,73%</t>
+          <t>86,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>76,59%</t>
+          <t>82,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>85,19%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>361</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>222557</t>
+          <t>217277</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>213207</t>
+          <t>210766</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>230933</t>
+          <t>221894</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>85,57%</t>
+          <t>93,66%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>81,98%</t>
+          <t>90,86%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>88,79%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>647</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>483437</t>
+          <t>387329</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>465773</t>
+          <t>377549</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>497625</t>
+          <t>395090</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>82,89%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>79,86%</t>
+          <t>88,26%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>85,32%</t>
+          <t>92,36%</t>
         </is>
       </c>
     </row>
@@ -3942,22 +3942,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>323164</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>323164</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>323164</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4012,22 +4012,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>741</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>583244</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>583244</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>583244</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4059,107 +4059,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>53753</t>
+          <t>22530</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14547</t>
+          <t>17855</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>118020</t>
+          <t>29399</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24444</t>
+          <t>13913</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18001</t>
+          <t>9460</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>31779</t>
+          <t>19229</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>32,57%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>93</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>78197</t>
+          <t>36443</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>24040</t>
+          <t>29296</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>143419</t>
+          <t>44854</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>17,01%</t>
         </is>
       </c>
     </row>
@@ -4172,107 +4172,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>283</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>421671</t>
+          <t>158341</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>357404</t>
+          <t>151472</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>460877</t>
+          <t>163016</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,69%</t>
+          <t>87,54%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,18%</t>
+          <t>83,75%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>90,13%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>127</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>73120</t>
+          <t>68887</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>65785</t>
+          <t>63571</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>79563</t>
+          <t>73340</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>74,95%</t>
+          <t>83,2%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>67,43%</t>
+          <t>76,78%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>81,55%</t>
+          <t>88,57%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>410</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>494791</t>
+          <t>227229</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>429569</t>
+          <t>218818</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>548948</t>
+          <t>234376</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>86,35%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>74,97%</t>
+          <t>82,99%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,8%</t>
+          <t>88,89%</t>
         </is>
       </c>
     </row>
@@ -4285,22 +4285,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4320,22 +4320,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4355,22 +4355,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>503</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4402,107 +4402,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>105411</t>
+          <t>47479</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>90119</t>
+          <t>38506</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>124385</t>
+          <t>56984</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>18,48%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>267954</t>
+          <t>31968</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>88690</t>
+          <t>24911</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>496492</t>
+          <t>40782</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>42,09%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>77,99%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>184</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>373365</t>
+          <t>79447</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>195239</t>
+          <t>67861</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>698721</t>
+          <t>92237</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>59,58%</t>
+          <t>14,77%</t>
         </is>
       </c>
     </row>
@@ -4515,107 +4515,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>466</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>430744</t>
+          <t>260954</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>411770</t>
+          <t>251449</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>446036</t>
+          <t>269927</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>80,34%</t>
+          <t>84,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>76,8%</t>
+          <t>81,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>83,19%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>484</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>368684</t>
+          <t>283995</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>140146</t>
+          <t>275181</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>547948</t>
+          <t>291052</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>57,91%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>87,09%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>86,07%</t>
+          <t>92,12%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>950</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>799428</t>
+          <t>544949</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>474072</t>
+          <t>532159</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>977554</t>
+          <t>556535</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>68,16%</t>
+          <t>87,28%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>40,42%</t>
+          <t>85,23%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>83,35%</t>
+          <t>89,13%</t>
         </is>
       </c>
     </row>
@@ -4628,22 +4628,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>555</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4698,22 +4698,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4745,107 +4745,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>39618</t>
+          <t>18353</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>29368</t>
+          <t>13349</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>51355</t>
+          <t>25036</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>93997</t>
+          <t>20561</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>52934</t>
+          <t>14923</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>116581</t>
+          <t>26596</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>27,5%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>83</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>133615</t>
+          <t>38914</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>91299</t>
+          <t>30317</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>159375</t>
+          <t>47411</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>15,53%</t>
         </is>
       </c>
     </row>
@@ -4858,107 +4858,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>171604</t>
+          <t>131932</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>159867</t>
+          <t>125249</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>181854</t>
+          <t>136936</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>81,24%</t>
+          <t>87,79%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
+          <t>83,34%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>86,1%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>224</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>329952</t>
+          <t>134507</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>307368</t>
+          <t>128472</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>371015</t>
+          <t>140145</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>77,83%</t>
+          <t>86,74%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>72,5%</t>
+          <t>82,85%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>87,51%</t>
+          <t>90,38%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>444</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>501556</t>
+          <t>266440</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>475796</t>
+          <t>257943</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>543872</t>
+          <t>275037</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>78,96%</t>
+          <t>87,26%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>74,91%</t>
+          <t>84,47%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>85,63%</t>
+          <t>90,07%</t>
         </is>
       </c>
     </row>
@@ -4971,22 +4971,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5006,22 +5006,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>527</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5088,107 +5088,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1253</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3762</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>13,41%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>40,24%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>3349</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>926</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>9658</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>2,01%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>0,56%</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>5,79%</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>129477</t>
+          <t>2396</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>114013</t>
+          <t>483</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>147740</t>
+          <t>5545</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>48,49%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>132826</t>
+          <t>3649</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>115413</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>152204</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>33,97%</t>
         </is>
       </c>
     </row>
@@ -5201,107 +5201,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>163412</t>
+          <t>8095</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>157103</t>
+          <t>5586</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>165835</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>86,59%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>59,76%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,44%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>360491</t>
+          <t>9038</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>342228</t>
+          <t>5889</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>375955</t>
+          <t>10951</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>73,57%</t>
+          <t>79,04%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>69,85%</t>
+          <t>51,51%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>76,73%</t>
+          <t>95,77%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>523903</t>
+          <t>17133</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>504525</t>
+          <t>13722</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>541316</t>
+          <t>19285</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>79,77%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>76,82%</t>
+          <t>66,03%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>82,43%</t>
+          <t>92,8%</t>
         </is>
       </c>
     </row>
@@ -5314,22 +5314,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5349,22 +5349,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5384,22 +5384,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5431,107 +5431,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>350</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>339251</t>
+          <t>147324</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>216417</t>
+          <t>131134</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>396900</t>
+          <t>164168</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>215</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>591182</t>
+          <t>99856</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>410858</t>
+          <t>87460</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>1052724</t>
+          <t>114209</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>26,79%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>47,7%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>565</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>930434</t>
+          <t>247179</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>721526</t>
+          <t>226428</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1481767</t>
+          <t>268651</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>34,57%</t>
+          <t>12,13%</t>
         </is>
       </c>
     </row>
@@ -5544,107 +5544,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1415</t>
+          <t>1714</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1740158</t>
+          <t>992907</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1682509</t>
+          <t>976063</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1862992</t>
+          <t>1009097</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>83,69%</t>
+          <t>87,08%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>80,91%</t>
+          <t>85,6%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>89,59%</t>
+          <t>88,5%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2249</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1615919</t>
+          <t>974089</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1154377</t>
+          <t>959736</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1796243</t>
+          <t>986485</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>73,21%</t>
+          <t>90,7%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>52,3%</t>
+          <t>89,37%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>81,38%</t>
+          <t>91,86%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3664</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>3356076</t>
+          <t>1966997</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2804743</t>
+          <t>1945525</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>3564984</t>
+          <t>1987748</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>78,29%</t>
+          <t>88,84%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>65,43%</t>
+          <t>87,87%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>83,17%</t>
+          <t>89,77%</t>
         </is>
       </c>
     </row>
@@ -5657,22 +5657,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2079409</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2079409</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2079409</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5692,22 +5692,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2964</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5727,22 +5727,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4830</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4286510</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4286510</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4286510</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para la tensión arterial en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6016,107 +6016,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31989</t>
+          <t>30714</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24301</t>
+          <t>26759</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40438</t>
+          <t>35346</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16315</t>
+          <t>15180</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11712</t>
+          <t>11739</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23488</t>
+          <t>18348</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>250</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>48305</t>
+          <t>45894</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>39099</t>
+          <t>40272</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>59205</t>
+          <t>51994</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>15,69%</t>
         </is>
       </c>
     </row>
@@ -6129,107 +6129,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>684</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>263534</t>
+          <t>132087</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>255085</t>
+          <t>127455</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>271222</t>
+          <t>136042</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,18%</t>
+          <t>81,13%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,32%</t>
+          <t>78,29%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,78%</t>
+          <t>83,56%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>799</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>260385</t>
+          <t>153387</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>253212</t>
+          <t>150219</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>264988</t>
+          <t>156828</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>90,99%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>89,12%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,77%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>1483</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>523917</t>
+          <t>285474</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>513017</t>
+          <t>279374</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>533123</t>
+          <t>291096</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>91,56%</t>
+          <t>86,15%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>89,65%</t>
+          <t>84,31%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>93,17%</t>
+          <t>87,85%</t>
         </is>
       </c>
     </row>
@@ -6242,22 +6242,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>855</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6277,22 +6277,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>878</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -6312,22 +6312,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -6359,107 +6359,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25719</t>
+          <t>19129</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20133</t>
+          <t>15814</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33811</t>
+          <t>22970</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14702</t>
+          <t>14338</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10085</t>
+          <t>11773</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21213</t>
+          <t>17866</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>186</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>40421</t>
+          <t>33466</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>32660</t>
+          <t>28636</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>50201</t>
+          <t>38331</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>17,99%</t>
         </is>
       </c>
     </row>
@@ -6472,107 +6472,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>170053</t>
+          <t>71296</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>161961</t>
+          <t>67455</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>175639</t>
+          <t>74611</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>86,86%</t>
+          <t>78,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>82,73%</t>
+          <t>74,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>89,72%</t>
+          <t>82,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>593</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>217277</t>
+          <t>108330</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>210766</t>
+          <t>104802</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>221894</t>
+          <t>110895</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>88,31%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>85,44%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>90,4%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>981</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>387329</t>
+          <t>179627</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>377549</t>
+          <t>174762</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>184457</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>90,55%</t>
+          <t>84,29%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>88,26%</t>
+          <t>82,01%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>92,36%</t>
+          <t>86,56%</t>
         </is>
       </c>
     </row>
@@ -6585,22 +6585,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6620,22 +6620,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>673</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6655,22 +6655,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6702,107 +6702,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22530</t>
+          <t>35919</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17855</t>
+          <t>30917</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29399</t>
+          <t>40145</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>20,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13913</t>
+          <t>14040</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9460</t>
+          <t>11404</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19229</t>
+          <t>17220</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>315</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>36443</t>
+          <t>49959</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>29296</t>
+          <t>45089</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>44854</t>
+          <t>55360</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>25,69%</t>
         </is>
       </c>
     </row>
@@ -6815,107 +6815,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>692</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>158341</t>
+          <t>117965</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>151472</t>
+          <t>113739</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>163016</t>
+          <t>122967</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,54%</t>
+          <t>76,66%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,75%</t>
+          <t>73,91%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,13%</t>
+          <t>79,91%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>282</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>68887</t>
+          <t>47577</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63571</t>
+          <t>44397</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73340</t>
+          <t>50213</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>83,2%</t>
+          <t>77,21%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>76,78%</t>
+          <t>72,05%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>88,57%</t>
+          <t>81,49%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>974</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>227229</t>
+          <t>165542</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>218818</t>
+          <t>160141</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>234376</t>
+          <t>170412</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>86,18%</t>
+          <t>76,82%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>74,31%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>88,89%</t>
+          <t>79,08%</t>
         </is>
       </c>
     </row>
@@ -6928,22 +6928,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>922</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6963,22 +6963,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6998,22 +6998,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7045,107 +7045,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>216</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>47479</t>
+          <t>34148</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38506</t>
+          <t>29736</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>56984</t>
+          <t>39111</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>193</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31968</t>
+          <t>32247</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24911</t>
+          <t>27846</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40782</t>
+          <t>36803</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>409</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>79447</t>
+          <t>66395</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>67861</t>
+          <t>59861</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>92237</t>
+          <t>72515</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>20,61%</t>
         </is>
       </c>
     </row>
@@ -7158,107 +7158,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>787</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>260954</t>
+          <t>135571</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>251449</t>
+          <t>130608</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>269927</t>
+          <t>139983</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>84,61%</t>
+          <t>79,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>81,52%</t>
+          <t>76,96%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>82,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>846</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>283995</t>
+          <t>149943</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>275181</t>
+          <t>145387</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>291052</t>
+          <t>154344</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>89,88%</t>
+          <t>82,3%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>87,09%</t>
+          <t>79,8%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>92,12%</t>
+          <t>84,72%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>544949</t>
+          <t>285514</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>532159</t>
+          <t>279394</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>556535</t>
+          <t>292048</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>87,28%</t>
+          <t>81,13%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>85,23%</t>
+          <t>79,39%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>82,99%</t>
         </is>
       </c>
     </row>
@@ -7271,22 +7271,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7306,22 +7306,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -7341,22 +7341,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1134</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -7388,107 +7388,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18353</t>
+          <t>14693</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13349</t>
+          <t>12081</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>25036</t>
+          <t>17710</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>174</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20561</t>
+          <t>28148</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>14923</t>
+          <t>24340</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>26596</t>
+          <t>32316</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>272</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>38914</t>
+          <t>42841</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>30317</t>
+          <t>37761</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>47411</t>
+          <t>48028</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>24,03%</t>
         </is>
       </c>
     </row>
@@ -7501,107 +7501,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>353</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>131932</t>
+          <t>59758</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>125249</t>
+          <t>56741</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>136936</t>
+          <t>62370</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>87,79%</t>
+          <t>80,26%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>83,34%</t>
+          <t>76,21%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>91,12%</t>
+          <t>83,77%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>572</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>134507</t>
+          <t>97268</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>128472</t>
+          <t>93100</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>140145</t>
+          <t>101076</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>86,74%</t>
+          <t>77,56%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>82,85%</t>
+          <t>74,23%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>90,38%</t>
+          <t>80,59%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>925</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>266440</t>
+          <t>157026</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>257943</t>
+          <t>151839</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>275037</t>
+          <t>162106</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>87,26%</t>
+          <t>78,57%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>84,47%</t>
+          <t>75,97%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>90,07%</t>
+          <t>81,11%</t>
         </is>
       </c>
     </row>
@@ -7614,22 +7614,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -7649,22 +7649,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -7684,22 +7684,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -7731,107 +7731,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>739</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3762</t>
+          <t>2931</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>40,24%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>188</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2396</t>
+          <t>28973</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>25187</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5545</t>
+          <t>33487</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>48,49%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>198</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>3649</t>
+          <t>30583</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>26527</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>34924</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>33,97%</t>
+          <t>19,6%</t>
         </is>
       </c>
     </row>
@@ -7844,107 +7844,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>258</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>8095</t>
+          <t>53992</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5586</t>
+          <t>52672</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>54864</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>86,59%</t>
+          <t>97,1%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>59,76%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,67%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>505</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>9038</t>
+          <t>93628</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>5889</t>
+          <t>89114</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>10951</t>
+          <t>97414</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>79,04%</t>
+          <t>76,37%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>51,51%</t>
+          <t>72,69%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>95,77%</t>
+          <t>79,46%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>763</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>17133</t>
+          <t>147621</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>13722</t>
+          <t>143280</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>19285</t>
+          <t>151677</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>82,44%</t>
+          <t>82,84%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>66,03%</t>
+          <t>80,4%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>85,11%</t>
         </is>
       </c>
     </row>
@@ -7957,22 +7957,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7992,22 +7992,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8027,22 +8027,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8074,107 +8074,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>831</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>147324</t>
+          <t>136214</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>131134</t>
+          <t>127114</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>164168</t>
+          <t>145485</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>799</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>99856</t>
+          <t>132925</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>87460</t>
+          <t>123917</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>114209</t>
+          <t>142382</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>1630</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>247179</t>
+          <t>269139</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>226428</t>
+          <t>257593</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>268651</t>
+          <t>282567</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>18,96%</t>
         </is>
       </c>
     </row>
@@ -8187,107 +8187,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1714</t>
+          <t>3162</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>992907</t>
+          <t>570669</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>976063</t>
+          <t>561398</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1009097</t>
+          <t>579769</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>80,73%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>79,42%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>88,5%</t>
+          <t>82,02%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>3597</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>974089</t>
+          <t>650134</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>959736</t>
+          <t>640677</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>986485</t>
+          <t>659142</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>90,7%</t>
+          <t>83,02%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>89,37%</t>
+          <t>81,82%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>91,86%</t>
+          <t>84,18%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3359</t>
+          <t>6759</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1966997</t>
+          <t>1220802</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1945525</t>
+          <t>1207374</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1987748</t>
+          <t>1232348</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>88,84%</t>
+          <t>81,94%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>87,87%</t>
+          <t>81,04%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>82,71%</t>
         </is>
       </c>
     </row>
@@ -8300,22 +8300,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2064</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -8335,22 +8335,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -8370,22 +8370,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>8389</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
